--- a/biology/Zoologie/Réserve_d'aire_marine_nationale_de_conservation_et_site_du_patrimoine_haïda_Gwaii_Haanas/Réserve_d'aire_marine_nationale_de_conservation_et_site_du_patrimoine_haïda_Gwaii_Haanas.xlsx
+++ b/biology/Zoologie/Réserve_d'aire_marine_nationale_de_conservation_et_site_du_patrimoine_haïda_Gwaii_Haanas/Réserve_d'aire_marine_nationale_de_conservation_et_site_du_patrimoine_haïda_Gwaii_Haanas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_d%27aire_marine_nationale_de_conservation_et_site_du_patrimoine_ha%C3%AFda_Gwaii_Haanas</t>
+          <t>Réserve_d'aire_marine_nationale_de_conservation_et_site_du_patrimoine_haïda_Gwaii_Haanas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve d’aire marine nationale de conservation et site du patrimoine haïda Gwaii Haanas est une aire marine protégée du Canada créée en 2010 située en Colombie-Britannique, au sud de l'archipel Haida Gwaii (anciennement îles de la Reine-Charlotte). Cette aire protégée de 3 500 km2 est adjacente à la réserve de parc national et site du patrimoine haïda Gwaii Haanas.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_d%27aire_marine_nationale_de_conservation_et_site_du_patrimoine_ha%C3%AFda_Gwaii_Haanas</t>
+          <t>Réserve_d'aire_marine_nationale_de_conservation_et_site_du_patrimoine_haïda_Gwaii_Haanas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Gwaii Haanas provient du nom haïda de l'île Moresby. Il signifie plus ou moins « île de merveille et de beauté »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Gwaii Haanas provient du nom haïda de l'île Moresby. Il signifie plus ou moins « île de merveille et de beauté ».
 </t>
         </is>
       </c>
